--- a/labels.xlsx
+++ b/labels.xlsx
@@ -37,7 +37,7 @@
     <t xml:space="preserve">VIPER</t>
   </si>
   <si>
-    <t xml:space="preserve">SYNTHIA</t>
+    <t xml:space="preserve">SYNTHIA_SF</t>
   </si>
   <si>
     <t xml:space="preserve">CITYSCAPES_LABELS</t>
@@ -782,10 +782,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00"/>
-    <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -908,7 +907,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -933,11 +932,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
-    </dxf>
-  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -949,7 +943,7 @@
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
@@ -1009,11 +1003,11 @@
   <dimension ref="A1:M77"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="L1" activeCellId="0" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="A59" activeCellId="0" sqref="A59"/>
-      <selection pane="bottomRight" activeCell="P77" activeCellId="0" sqref="P77"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1078,26 +1072,11 @@
       <c r="H2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="7" t="n">
-        <f aca="false">NOT(EXACT(E2,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="J2" s="7" t="n">
-        <f aca="false">NOT(EXACT(F2,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="K2" s="7" t="n">
-        <f aca="false">NOT(EXACT(G2,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="L2" s="7" t="n">
-        <f aca="false">NOT(EXACT(H2,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="M2" s="7" t="n">
-        <f aca="false">AND(I2,J2,K2,L2)</f>
-        <v>0</v>
-      </c>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
@@ -1124,26 +1103,11 @@
       <c r="H3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="7" t="n">
-        <f aca="false">NOT(EXACT(E3,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="J3" s="7" t="n">
-        <f aca="false">NOT(EXACT(F3,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="7" t="n">
-        <f aca="false">NOT(EXACT(G3,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="L3" s="7" t="n">
-        <f aca="false">NOT(EXACT(H3,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="7" t="n">
-        <f aca="false">AND(I3,J3,K3,L3)</f>
-        <v>0</v>
-      </c>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
@@ -1170,26 +1134,11 @@
       <c r="H4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="7" t="n">
-        <f aca="false">NOT(EXACT(E4,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="J4" s="7" t="n">
-        <f aca="false">NOT(EXACT(F4,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="7" t="n">
-        <f aca="false">NOT(EXACT(G4,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="7" t="n">
-        <f aca="false">NOT(EXACT(H4,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="7" t="n">
-        <f aca="false">AND(I4,J4,K4,L4)</f>
-        <v>0</v>
-      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
@@ -1216,26 +1165,11 @@
       <c r="H5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="7" t="n">
-        <f aca="false">NOT(EXACT(E5,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="J5" s="7" t="n">
-        <f aca="false">NOT(EXACT(F5,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="K5" s="7" t="n">
-        <f aca="false">NOT(EXACT(G5,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="L5" s="7" t="n">
-        <f aca="false">NOT(EXACT(H5,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="M5" s="7" t="n">
-        <f aca="false">AND(I5,J5,K5,L5)</f>
-        <v>1</v>
-      </c>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
@@ -1262,26 +1196,11 @@
       <c r="H6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="7" t="n">
-        <f aca="false">NOT(EXACT(E6,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="J6" s="7" t="n">
-        <f aca="false">NOT(EXACT(F6,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="7" t="n">
-        <f aca="false">NOT(EXACT(G6,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="L6" s="7" t="n">
-        <f aca="false">NOT(EXACT(H6,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="M6" s="7" t="n">
-        <f aca="false">AND(I6,J6,K6,L6)</f>
-        <v>0</v>
-      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
@@ -1308,26 +1227,11 @@
       <c r="H7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="7" t="n">
-        <f aca="false">NOT(EXACT(E7,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="J7" s="7" t="n">
-        <f aca="false">NOT(EXACT(F7,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="7" t="n">
-        <f aca="false">NOT(EXACT(G7,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="7" t="n">
-        <f aca="false">NOT(EXACT(H7,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="M7" s="7" t="n">
-        <f aca="false">AND(I7,J7,K7,L7)</f>
-        <v>0</v>
-      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
@@ -1354,26 +1258,11 @@
       <c r="H8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="7" t="n">
-        <f aca="false">NOT(EXACT(E8,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="J8" s="7" t="n">
-        <f aca="false">NOT(EXACT(F8,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="K8" s="7" t="n">
-        <f aca="false">NOT(EXACT(G8,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="L8" s="7" t="n">
-        <f aca="false">NOT(EXACT(H8,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="M8" s="7" t="n">
-        <f aca="false">AND(I8,J8,K8,L8)</f>
-        <v>0</v>
-      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
@@ -1400,26 +1289,11 @@
       <c r="H9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="7" t="n">
-        <f aca="false">NOT(EXACT(E9,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="J9" s="7" t="n">
-        <f aca="false">NOT(EXACT(F9,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="7" t="n">
-        <f aca="false">NOT(EXACT(G9,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="L9" s="7" t="n">
-        <f aca="false">NOT(EXACT(H9,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="7" t="n">
-        <f aca="false">AND(I9,J9,K9,L9)</f>
-        <v>0</v>
-      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
@@ -1446,26 +1320,11 @@
       <c r="H10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="7" t="n">
-        <f aca="false">NOT(EXACT(E10,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="J10" s="7" t="n">
-        <f aca="false">NOT(EXACT(F10,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="K10" s="7" t="n">
-        <f aca="false">NOT(EXACT(G10,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="L10" s="7" t="n">
-        <f aca="false">NOT(EXACT(H10,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="M10" s="7" t="n">
-        <f aca="false">AND(I10,J10,K10,L10)</f>
-        <v>0</v>
-      </c>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
@@ -1492,26 +1351,11 @@
       <c r="H11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="7" t="n">
-        <f aca="false">NOT(EXACT(E11,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="J11" s="7" t="n">
-        <f aca="false">NOT(EXACT(F11,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="7" t="n">
-        <f aca="false">NOT(EXACT(G11,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="7" t="n">
-        <f aca="false">NOT(EXACT(H11,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="7" t="n">
-        <f aca="false">AND(I11,J11,K11,L11)</f>
-        <v>0</v>
-      </c>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
@@ -1538,26 +1382,11 @@
       <c r="H12" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I12" s="7" t="n">
-        <f aca="false">NOT(EXACT(E12,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="J12" s="7" t="n">
-        <f aca="false">NOT(EXACT(F12,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="7" t="n">
-        <f aca="false">NOT(EXACT(G12,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="L12" s="7" t="n">
-        <f aca="false">NOT(EXACT(H12,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="M12" s="7" t="n">
-        <f aca="false">AND(I12,J12,K12,L12)</f>
-        <v>0</v>
-      </c>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
@@ -1584,26 +1413,11 @@
       <c r="H13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="7" t="n">
-        <f aca="false">NOT(EXACT(E13,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="J13" s="7" t="n">
-        <f aca="false">NOT(EXACT(F13,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="K13" s="7" t="n">
-        <f aca="false">NOT(EXACT(G13,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="L13" s="7" t="n">
-        <f aca="false">NOT(EXACT(H13,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="M13" s="7" t="n">
-        <f aca="false">AND(I13,J13,K13,L13)</f>
-        <v>0</v>
-      </c>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
@@ -1630,26 +1444,11 @@
       <c r="H14" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I14" s="7" t="n">
-        <f aca="false">NOT(EXACT(E14,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="J14" s="7" t="n">
-        <f aca="false">NOT(EXACT(F14,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="K14" s="7" t="n">
-        <f aca="false">NOT(EXACT(G14,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="L14" s="7" t="n">
-        <f aca="false">NOT(EXACT(H14,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="M14" s="7" t="n">
-        <f aca="false">AND(I14,J14,K14,L14)</f>
-        <v>0</v>
-      </c>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
@@ -1676,26 +1475,11 @@
       <c r="H15" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="I15" s="7" t="n">
-        <f aca="false">NOT(EXACT(E15,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="J15" s="7" t="n">
-        <f aca="false">NOT(EXACT(F15,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="K15" s="7" t="n">
-        <f aca="false">NOT(EXACT(G15,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="L15" s="7" t="n">
-        <f aca="false">NOT(EXACT(H15,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="M15" s="7" t="n">
-        <f aca="false">AND(I15,J15,K15,L15)</f>
-        <v>1</v>
-      </c>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
@@ -1722,26 +1506,11 @@
       <c r="H16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="7" t="n">
-        <f aca="false">NOT(EXACT(E16,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="J16" s="7" t="n">
-        <f aca="false">NOT(EXACT(F16,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="K16" s="7" t="n">
-        <f aca="false">NOT(EXACT(G16,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="L16" s="7" t="n">
-        <f aca="false">NOT(EXACT(H16,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="M16" s="7" t="n">
-        <f aca="false">AND(I16,J16,K16,L16)</f>
-        <v>0</v>
-      </c>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
@@ -1768,26 +1537,11 @@
       <c r="H17" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="I17" s="7" t="n">
-        <f aca="false">NOT(EXACT(E17,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="J17" s="7" t="n">
-        <f aca="false">NOT(EXACT(F17,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="K17" s="7" t="n">
-        <f aca="false">NOT(EXACT(G17,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="L17" s="7" t="n">
-        <f aca="false">NOT(EXACT(H17,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="M17" s="7" t="n">
-        <f aca="false">AND(I17,J17,K17,L17)</f>
-        <v>1</v>
-      </c>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
@@ -1814,26 +1568,11 @@
       <c r="H18" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="I18" s="7" t="n">
-        <f aca="false">NOT(EXACT(E18,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="J18" s="7" t="n">
-        <f aca="false">NOT(EXACT(F18,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="K18" s="7" t="n">
-        <f aca="false">NOT(EXACT(G18,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="L18" s="7" t="n">
-        <f aca="false">NOT(EXACT(H18,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="M18" s="7" t="n">
-        <f aca="false">AND(I18,J18,K18,L18)</f>
-        <v>0</v>
-      </c>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
@@ -1860,26 +1599,11 @@
       <c r="H19" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="I19" s="7" t="n">
-        <f aca="false">NOT(EXACT(E19,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="J19" s="7" t="n">
-        <f aca="false">NOT(EXACT(F19,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="K19" s="7" t="n">
-        <f aca="false">NOT(EXACT(G19,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="L19" s="7" t="n">
-        <f aca="false">NOT(EXACT(H19,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="M19" s="7" t="n">
-        <f aca="false">AND(I19,J19,K19,L19)</f>
-        <v>1</v>
-      </c>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
@@ -1906,26 +1630,11 @@
       <c r="H20" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="I20" s="7" t="n">
-        <f aca="false">NOT(EXACT(E20,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="J20" s="7" t="n">
-        <f aca="false">NOT(EXACT(F20,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="K20" s="7" t="n">
-        <f aca="false">NOT(EXACT(G20,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="L20" s="7" t="n">
-        <f aca="false">NOT(EXACT(H20,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="M20" s="7" t="n">
-        <f aca="false">AND(I20,J20,K20,L20)</f>
-        <v>0</v>
-      </c>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
@@ -1952,26 +1661,11 @@
       <c r="H21" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="I21" s="7" t="n">
-        <f aca="false">NOT(EXACT(E21,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="J21" s="7" t="n">
-        <f aca="false">NOT(EXACT(F21,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="K21" s="7" t="n">
-        <f aca="false">NOT(EXACT(G21,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="L21" s="7" t="n">
-        <f aca="false">NOT(EXACT(H21,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="M21" s="7" t="n">
-        <f aca="false">AND(I21,J21,K21,L21)</f>
-        <v>1</v>
-      </c>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
@@ -1998,26 +1692,11 @@
       <c r="H22" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="I22" s="7" t="n">
-        <f aca="false">NOT(EXACT(E22,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="J22" s="7" t="n">
-        <f aca="false">NOT(EXACT(F22,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="K22" s="7" t="n">
-        <f aca="false">NOT(EXACT(G22,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="L22" s="7" t="n">
-        <f aca="false">NOT(EXACT(H22,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="M22" s="7" t="n">
-        <f aca="false">AND(I22,J22,K22,L22)</f>
-        <v>1</v>
-      </c>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
@@ -2044,26 +1723,11 @@
       <c r="H23" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I23" s="7" t="n">
-        <f aca="false">NOT(EXACT(E23,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="J23" s="7" t="n">
-        <f aca="false">NOT(EXACT(F23,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="K23" s="7" t="n">
-        <f aca="false">NOT(EXACT(G23,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="L23" s="7" t="n">
-        <f aca="false">NOT(EXACT(H23,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="M23" s="7" t="n">
-        <f aca="false">AND(I23,J23,K23,L23)</f>
-        <v>0</v>
-      </c>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
@@ -2090,26 +1754,11 @@
       <c r="H24" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I24" s="7" t="n">
-        <f aca="false">NOT(EXACT(E24,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="J24" s="7" t="n">
-        <f aca="false">NOT(EXACT(F24,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="K24" s="7" t="n">
-        <f aca="false">NOT(EXACT(G24,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="L24" s="7" t="n">
-        <f aca="false">NOT(EXACT(H24,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="M24" s="7" t="n">
-        <f aca="false">AND(I24,J24,K24,L24)</f>
-        <v>0</v>
-      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
@@ -2136,26 +1785,11 @@
       <c r="H25" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I25" s="7" t="n">
-        <f aca="false">NOT(EXACT(E25,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="J25" s="7" t="n">
-        <f aca="false">NOT(EXACT(F25,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="K25" s="7" t="n">
-        <f aca="false">NOT(EXACT(G25,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="L25" s="7" t="n">
-        <f aca="false">NOT(EXACT(H25,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="M25" s="7" t="n">
-        <f aca="false">AND(I25,J25,K25,L25)</f>
-        <v>0</v>
-      </c>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
@@ -2182,26 +1816,11 @@
       <c r="H26" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I26" s="7" t="n">
-        <f aca="false">NOT(EXACT(E26,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="J26" s="7" t="n">
-        <f aca="false">NOT(EXACT(F26,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="K26" s="7" t="n">
-        <f aca="false">NOT(EXACT(G26,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="L26" s="7" t="n">
-        <f aca="false">NOT(EXACT(H26,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="M26" s="7" t="n">
-        <f aca="false">AND(I26,J26,K26,L26)</f>
-        <v>0</v>
-      </c>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
@@ -2228,26 +1847,11 @@
       <c r="H27" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I27" s="7" t="n">
-        <f aca="false">NOT(EXACT(E27,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="J27" s="7" t="n">
-        <f aca="false">NOT(EXACT(F27,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="K27" s="7" t="n">
-        <f aca="false">NOT(EXACT(G27,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="L27" s="7" t="n">
-        <f aca="false">NOT(EXACT(H27,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="M27" s="7" t="n">
-        <f aca="false">AND(I27,J27,K27,L27)</f>
-        <v>0</v>
-      </c>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
@@ -2274,26 +1878,11 @@
       <c r="H28" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I28" s="7" t="n">
-        <f aca="false">NOT(EXACT(E28,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="J28" s="7" t="n">
-        <f aca="false">NOT(EXACT(F28,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="K28" s="7" t="n">
-        <f aca="false">NOT(EXACT(G28,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="L28" s="7" t="n">
-        <f aca="false">NOT(EXACT(H28,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="M28" s="7" t="n">
-        <f aca="false">AND(I28,J28,K28,L28)</f>
-        <v>0</v>
-      </c>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
@@ -2320,26 +1909,11 @@
       <c r="H29" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="I29" s="7" t="n">
-        <f aca="false">NOT(EXACT(E29,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="J29" s="7" t="n">
-        <f aca="false">NOT(EXACT(F29,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="K29" s="7" t="n">
-        <f aca="false">NOT(EXACT(G29,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="L29" s="7" t="n">
-        <f aca="false">NOT(EXACT(H29,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="M29" s="7" t="n">
-        <f aca="false">AND(I29,J29,K29,L29)</f>
-        <v>1</v>
-      </c>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
@@ -2366,26 +1940,11 @@
       <c r="H30" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I30" s="7" t="n">
-        <f aca="false">NOT(EXACT(E30,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="J30" s="7" t="n">
-        <f aca="false">NOT(EXACT(F30,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="K30" s="7" t="n">
-        <f aca="false">NOT(EXACT(G30,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="L30" s="7" t="n">
-        <f aca="false">NOT(EXACT(H30,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="M30" s="7" t="n">
-        <f aca="false">AND(I30,J30,K30,L30)</f>
-        <v>0</v>
-      </c>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
@@ -2412,26 +1971,11 @@
       <c r="H31" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="I31" s="7" t="n">
-        <f aca="false">NOT(EXACT(E31,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="J31" s="7" t="n">
-        <f aca="false">NOT(EXACT(F31,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="K31" s="7" t="n">
-        <f aca="false">NOT(EXACT(G31,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="L31" s="7" t="n">
-        <f aca="false">NOT(EXACT(H31,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="M31" s="7" t="n">
-        <f aca="false">AND(I31,J31,K31,L31)</f>
-        <v>1</v>
-      </c>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
@@ -2458,26 +2002,11 @@
       <c r="H32" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="I32" s="7" t="n">
-        <f aca="false">NOT(EXACT(E32,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="J32" s="7" t="n">
-        <f aca="false">NOT(EXACT(F32,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="K32" s="7" t="n">
-        <f aca="false">NOT(EXACT(G32,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="L32" s="7" t="n">
-        <f aca="false">NOT(EXACT(H32,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="M32" s="7" t="n">
-        <f aca="false">AND(I32,J32,K32,L32)</f>
-        <v>1</v>
-      </c>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
@@ -2504,26 +2033,11 @@
       <c r="H33" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I33" s="7" t="n">
-        <f aca="false">NOT(EXACT(E33,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="J33" s="7" t="n">
-        <f aca="false">NOT(EXACT(F33,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="K33" s="7" t="n">
-        <f aca="false">NOT(EXACT(G33,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="L33" s="7" t="n">
-        <f aca="false">NOT(EXACT(H33,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="M33" s="7" t="n">
-        <f aca="false">AND(I33,J33,K33,L33)</f>
-        <v>0</v>
-      </c>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
@@ -2550,26 +2064,11 @@
       <c r="H34" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I34" s="7" t="n">
-        <f aca="false">NOT(EXACT(E34,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="J34" s="7" t="n">
-        <f aca="false">NOT(EXACT(F34,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="K34" s="7" t="n">
-        <f aca="false">NOT(EXACT(G34,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="L34" s="7" t="n">
-        <f aca="false">NOT(EXACT(H34,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="M34" s="7" t="n">
-        <f aca="false">AND(I34,J34,K34,L34)</f>
-        <v>0</v>
-      </c>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
@@ -2596,26 +2095,11 @@
       <c r="H35" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I35" s="7" t="n">
-        <f aca="false">NOT(EXACT(E35,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="J35" s="7" t="n">
-        <f aca="false">NOT(EXACT(F35,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="K35" s="7" t="n">
-        <f aca="false">NOT(EXACT(G35,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="L35" s="7" t="n">
-        <f aca="false">NOT(EXACT(H35,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="M35" s="7" t="n">
-        <f aca="false">AND(I35,J35,K35,L35)</f>
-        <v>0</v>
-      </c>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
@@ -2642,26 +2126,11 @@
       <c r="H36" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I36" s="7" t="n">
-        <f aca="false">NOT(EXACT(E36,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="J36" s="7" t="n">
-        <f aca="false">NOT(EXACT(F36,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="K36" s="7" t="n">
-        <f aca="false">NOT(EXACT(G36,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="L36" s="7" t="n">
-        <f aca="false">NOT(EXACT(H36,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="M36" s="7" t="n">
-        <f aca="false">AND(I36,J36,K36,L36)</f>
-        <v>0</v>
-      </c>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
@@ -2688,26 +2157,11 @@
       <c r="H37" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I37" s="7" t="n">
-        <f aca="false">NOT(EXACT(E37,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="J37" s="7" t="n">
-        <f aca="false">NOT(EXACT(F37,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="K37" s="7" t="n">
-        <f aca="false">NOT(EXACT(G37,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="L37" s="7" t="n">
-        <f aca="false">NOT(EXACT(H37,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="M37" s="7" t="n">
-        <f aca="false">AND(I37,J37,K37,L37)</f>
-        <v>0</v>
-      </c>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
@@ -2734,26 +2188,11 @@
       <c r="H38" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I38" s="7" t="n">
-        <f aca="false">NOT(EXACT(E38,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="J38" s="7" t="n">
-        <f aca="false">NOT(EXACT(F38,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="K38" s="7" t="n">
-        <f aca="false">NOT(EXACT(G38,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="L38" s="7" t="n">
-        <f aca="false">NOT(EXACT(H38,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="M38" s="7" t="n">
-        <f aca="false">AND(I38,J38,K38,L38)</f>
-        <v>0</v>
-      </c>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
@@ -2780,26 +2219,11 @@
       <c r="H39" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I39" s="7" t="n">
-        <f aca="false">NOT(EXACT(E39,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="J39" s="7" t="n">
-        <f aca="false">NOT(EXACT(F39,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="K39" s="7" t="n">
-        <f aca="false">NOT(EXACT(G39,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="L39" s="7" t="n">
-        <f aca="false">NOT(EXACT(H39,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="M39" s="7" t="n">
-        <f aca="false">AND(I39,J39,K39,L39)</f>
-        <v>0</v>
-      </c>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
@@ -2826,26 +2250,11 @@
       <c r="H40" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I40" s="7" t="n">
-        <f aca="false">NOT(EXACT(E40,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="J40" s="7" t="n">
-        <f aca="false">NOT(EXACT(F40,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="K40" s="7" t="n">
-        <f aca="false">NOT(EXACT(G40,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="L40" s="7" t="n">
-        <f aca="false">NOT(EXACT(H40,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="M40" s="7" t="n">
-        <f aca="false">AND(I40,J40,K40,L40)</f>
-        <v>0</v>
-      </c>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
@@ -2872,26 +2281,11 @@
       <c r="H41" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I41" s="7" t="n">
-        <f aca="false">NOT(EXACT(E41,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="J41" s="7" t="n">
-        <f aca="false">NOT(EXACT(F41,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="K41" s="7" t="n">
-        <f aca="false">NOT(EXACT(G41,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="L41" s="7" t="n">
-        <f aca="false">NOT(EXACT(H41,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="M41" s="7" t="n">
-        <f aca="false">AND(I41,J41,K41,L41)</f>
-        <v>0</v>
-      </c>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
@@ -2918,26 +2312,11 @@
       <c r="H42" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I42" s="7" t="n">
-        <f aca="false">NOT(EXACT(E42,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="J42" s="7" t="n">
-        <f aca="false">NOT(EXACT(F42,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="K42" s="7" t="n">
-        <f aca="false">NOT(EXACT(G42,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="L42" s="7" t="n">
-        <f aca="false">NOT(EXACT(H42,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="M42" s="7" t="n">
-        <f aca="false">AND(I42,J42,K42,L42)</f>
-        <v>0</v>
-      </c>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
@@ -2964,26 +2343,11 @@
       <c r="H43" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I43" s="7" t="n">
-        <f aca="false">NOT(EXACT(E43,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="J43" s="7" t="n">
-        <f aca="false">NOT(EXACT(F43,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="K43" s="7" t="n">
-        <f aca="false">NOT(EXACT(G43,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="L43" s="7" t="n">
-        <f aca="false">NOT(EXACT(H43,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="M43" s="7" t="n">
-        <f aca="false">AND(I43,J43,K43,L43)</f>
-        <v>0</v>
-      </c>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
@@ -3010,26 +2374,11 @@
       <c r="H44" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I44" s="7" t="n">
-        <f aca="false">NOT(EXACT(E44,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="J44" s="7" t="n">
-        <f aca="false">NOT(EXACT(F44,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="K44" s="7" t="n">
-        <f aca="false">NOT(EXACT(G44,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="L44" s="7" t="n">
-        <f aca="false">NOT(EXACT(H44,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="M44" s="7" t="n">
-        <f aca="false">AND(I44,J44,K44,L44)</f>
-        <v>0</v>
-      </c>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
@@ -3056,26 +2405,11 @@
       <c r="H45" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I45" s="7" t="n">
-        <f aca="false">NOT(EXACT(E45,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="J45" s="7" t="n">
-        <f aca="false">NOT(EXACT(F45,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="K45" s="7" t="n">
-        <f aca="false">NOT(EXACT(G45,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="L45" s="7" t="n">
-        <f aca="false">NOT(EXACT(H45,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="M45" s="7" t="n">
-        <f aca="false">AND(I45,J45,K45,L45)</f>
-        <v>0</v>
-      </c>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
@@ -3102,26 +2436,11 @@
       <c r="H46" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I46" s="7" t="n">
-        <f aca="false">NOT(EXACT(E46,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="J46" s="7" t="n">
-        <f aca="false">NOT(EXACT(F46,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="K46" s="7" t="n">
-        <f aca="false">NOT(EXACT(G46,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="L46" s="7" t="n">
-        <f aca="false">NOT(EXACT(H46,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="M46" s="7" t="n">
-        <f aca="false">AND(I46,J46,K46,L46)</f>
-        <v>0</v>
-      </c>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
@@ -3148,26 +2467,11 @@
       <c r="H47" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="I47" s="7" t="n">
-        <f aca="false">NOT(EXACT(E47,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="J47" s="7" t="n">
-        <f aca="false">NOT(EXACT(F47,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="K47" s="7" t="n">
-        <f aca="false">NOT(EXACT(G47,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="L47" s="7" t="n">
-        <f aca="false">NOT(EXACT(H47,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="M47" s="7" t="n">
-        <f aca="false">AND(I47,J47,K47,L47)</f>
-        <v>1</v>
-      </c>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
@@ -3194,26 +2498,11 @@
       <c r="H48" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I48" s="7" t="n">
-        <f aca="false">NOT(EXACT(E48,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="J48" s="7" t="n">
-        <f aca="false">NOT(EXACT(F48,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="K48" s="7" t="n">
-        <f aca="false">NOT(EXACT(G48,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="L48" s="7" t="n">
-        <f aca="false">NOT(EXACT(H48,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="M48" s="7" t="n">
-        <f aca="false">AND(I48,J48,K48,L48)</f>
-        <v>0</v>
-      </c>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="s">
@@ -3240,26 +2529,11 @@
       <c r="H49" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I49" s="7" t="n">
-        <f aca="false">NOT(EXACT(E49,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="J49" s="7" t="n">
-        <f aca="false">NOT(EXACT(F49,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="K49" s="7" t="n">
-        <f aca="false">NOT(EXACT(G49,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="L49" s="7" t="n">
-        <f aca="false">NOT(EXACT(H49,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="M49" s="7" t="n">
-        <f aca="false">AND(I49,J49,K49,L49)</f>
-        <v>0</v>
-      </c>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
@@ -3286,26 +2560,11 @@
       <c r="H50" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="I50" s="7" t="n">
-        <f aca="false">NOT(EXACT(E50,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="J50" s="7" t="n">
-        <f aca="false">NOT(EXACT(F50,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="K50" s="7" t="n">
-        <f aca="false">NOT(EXACT(G50,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="L50" s="7" t="n">
-        <f aca="false">NOT(EXACT(H50,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="M50" s="7" t="n">
-        <f aca="false">AND(I50,J50,K50,L50)</f>
-        <v>1</v>
-      </c>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
@@ -3332,26 +2591,11 @@
       <c r="H51" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I51" s="7" t="n">
-        <f aca="false">NOT(EXACT(E51,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="J51" s="7" t="n">
-        <f aca="false">NOT(EXACT(F51,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="K51" s="7" t="n">
-        <f aca="false">NOT(EXACT(G51,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="L51" s="7" t="n">
-        <f aca="false">NOT(EXACT(H51,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="M51" s="7" t="n">
-        <f aca="false">AND(I51,J51,K51,L51)</f>
-        <v>0</v>
-      </c>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="s">
@@ -3378,26 +2622,11 @@
       <c r="H52" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="I52" s="7" t="n">
-        <f aca="false">NOT(EXACT(E52,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="J52" s="7" t="n">
-        <f aca="false">NOT(EXACT(F52,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="K52" s="7" t="n">
-        <f aca="false">NOT(EXACT(G52,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="L52" s="7" t="n">
-        <f aca="false">NOT(EXACT(H52,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="M52" s="7" t="n">
-        <f aca="false">AND(I52,J52,K52,L52)</f>
-        <v>1</v>
-      </c>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="s">
@@ -3424,26 +2653,11 @@
       <c r="H53" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="7" t="n">
-        <f aca="false">NOT(EXACT(E53,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="J53" s="7" t="n">
-        <f aca="false">NOT(EXACT(F53,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="K53" s="7" t="n">
-        <f aca="false">NOT(EXACT(G53,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="L53" s="7" t="n">
-        <f aca="false">NOT(EXACT(H53,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="M53" s="7" t="n">
-        <f aca="false">AND(I53,J53,K53,L53)</f>
-        <v>0</v>
-      </c>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
@@ -3470,26 +2684,11 @@
       <c r="H54" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="I54" s="7" t="n">
-        <f aca="false">NOT(EXACT(E54,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="J54" s="7" t="n">
-        <f aca="false">NOT(EXACT(F54,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="K54" s="7" t="n">
-        <f aca="false">NOT(EXACT(G54,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="L54" s="7" t="n">
-        <f aca="false">NOT(EXACT(H54,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="M54" s="7" t="n">
-        <f aca="false">AND(I54,J54,K54,L54)</f>
-        <v>1</v>
-      </c>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
@@ -3516,26 +2715,11 @@
       <c r="H55" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I55" s="7" t="n">
-        <f aca="false">NOT(EXACT(E55,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="J55" s="7" t="n">
-        <f aca="false">NOT(EXACT(F55,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="K55" s="7" t="n">
-        <f aca="false">NOT(EXACT(G55,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="L55" s="7" t="n">
-        <f aca="false">NOT(EXACT(H55,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="M55" s="7" t="n">
-        <f aca="false">AND(I55,J55,K55,L55)</f>
-        <v>0</v>
-      </c>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
@@ -3562,26 +2746,11 @@
       <c r="H56" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="I56" s="7" t="n">
-        <f aca="false">NOT(EXACT(E56,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="J56" s="7" t="n">
-        <f aca="false">NOT(EXACT(F56,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="K56" s="7" t="n">
-        <f aca="false">NOT(EXACT(G56,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="L56" s="7" t="n">
-        <f aca="false">NOT(EXACT(H56,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="M56" s="7" t="n">
-        <f aca="false">AND(I56,J56,K56,L56)</f>
-        <v>1</v>
-      </c>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
@@ -3608,26 +2777,11 @@
       <c r="H57" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="I57" s="7" t="n">
-        <f aca="false">NOT(EXACT(E57,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="J57" s="7" t="n">
-        <f aca="false">NOT(EXACT(F57,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="K57" s="7" t="n">
-        <f aca="false">NOT(EXACT(G57,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="L57" s="7" t="n">
-        <f aca="false">NOT(EXACT(H57,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="M57" s="7" t="n">
-        <f aca="false">AND(I57,J57,K57,L57)</f>
-        <v>1</v>
-      </c>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
@@ -3654,26 +2808,11 @@
       <c r="H58" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="I58" s="7" t="n">
-        <f aca="false">NOT(EXACT(E58,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="J58" s="7" t="n">
-        <f aca="false">NOT(EXACT(F58,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="K58" s="7" t="n">
-        <f aca="false">NOT(EXACT(G58,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="L58" s="7" t="n">
-        <f aca="false">NOT(EXACT(H58,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="M58" s="7" t="n">
-        <f aca="false">AND(I58,J58,K58,L58)</f>
-        <v>0</v>
-      </c>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
+      <c r="M58" s="7"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
@@ -3700,26 +2839,11 @@
       <c r="H59" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="I59" s="7" t="n">
-        <f aca="false">NOT(EXACT(E59,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="J59" s="7" t="n">
-        <f aca="false">NOT(EXACT(F59,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="K59" s="7" t="n">
-        <f aca="false">NOT(EXACT(G59,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="L59" s="7" t="n">
-        <f aca="false">NOT(EXACT(H59,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="M59" s="7" t="n">
-        <f aca="false">AND(I59,J59,K59,L59)</f>
-        <v>1</v>
-      </c>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
+      <c r="M59" s="7"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
@@ -3746,26 +2870,11 @@
       <c r="H60" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="I60" s="7" t="n">
-        <f aca="false">NOT(EXACT(E60,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="J60" s="7" t="n">
-        <f aca="false">NOT(EXACT(F60,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="K60" s="7" t="n">
-        <f aca="false">NOT(EXACT(G60,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="L60" s="7" t="n">
-        <f aca="false">NOT(EXACT(H60,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="M60" s="7" t="n">
-        <f aca="false">AND(I60,J60,K60,L60)</f>
-        <v>1</v>
-      </c>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="7"/>
+      <c r="M60" s="7"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="s">
@@ -3792,26 +2901,11 @@
       <c r="H61" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I61" s="7" t="n">
-        <f aca="false">NOT(EXACT(E61,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="J61" s="7" t="n">
-        <f aca="false">NOT(EXACT(F61,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="K61" s="7" t="n">
-        <f aca="false">NOT(EXACT(G61,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="L61" s="7" t="n">
-        <f aca="false">NOT(EXACT(H61,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="M61" s="7" t="n">
-        <f aca="false">AND(I61,J61,K61,L61)</f>
-        <v>0</v>
-      </c>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="7"/>
+      <c r="M61" s="7"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="s">
@@ -3838,26 +2932,11 @@
       <c r="H62" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="I62" s="7" t="n">
-        <f aca="false">NOT(EXACT(E62,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="J62" s="7" t="n">
-        <f aca="false">NOT(EXACT(F62,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="K62" s="7" t="n">
-        <f aca="false">NOT(EXACT(G62,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="L62" s="7" t="n">
-        <f aca="false">NOT(EXACT(H62,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="M62" s="7" t="n">
-        <f aca="false">AND(I62,J62,K62,L62)</f>
-        <v>0</v>
-      </c>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="7"/>
+      <c r="M62" s="7"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="s">
@@ -3884,26 +2963,11 @@
       <c r="H63" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="I63" s="7" t="n">
-        <f aca="false">NOT(EXACT(E63,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="J63" s="7" t="n">
-        <f aca="false">NOT(EXACT(F63,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="K63" s="7" t="n">
-        <f aca="false">NOT(EXACT(G63,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="L63" s="7" t="n">
-        <f aca="false">NOT(EXACT(H63,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="M63" s="7" t="n">
-        <f aca="false">AND(I63,J63,K63,L63)</f>
-        <v>1</v>
-      </c>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="7"/>
+      <c r="L63" s="7"/>
+      <c r="M63" s="7"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="s">
@@ -3930,26 +2994,11 @@
       <c r="H64" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I64" s="7" t="n">
-        <f aca="false">NOT(EXACT(E64,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="J64" s="7" t="n">
-        <f aca="false">NOT(EXACT(F64,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="K64" s="7" t="n">
-        <f aca="false">NOT(EXACT(G64,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="L64" s="7" t="n">
-        <f aca="false">NOT(EXACT(H64,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="M64" s="7" t="n">
-        <f aca="false">AND(I64,J64,K64,L64)</f>
-        <v>0</v>
-      </c>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="7"/>
+      <c r="L64" s="7"/>
+      <c r="M64" s="7"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="4" t="s">
@@ -3976,26 +3025,11 @@
       <c r="H65" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I65" s="7" t="n">
-        <f aca="false">NOT(EXACT(E65,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="J65" s="7" t="n">
-        <f aca="false">NOT(EXACT(F65,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="K65" s="7" t="n">
-        <f aca="false">NOT(EXACT(G65,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="L65" s="7" t="n">
-        <f aca="false">NOT(EXACT(H65,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="M65" s="7" t="n">
-        <f aca="false">AND(I65,J65,K65,L65)</f>
-        <v>0</v>
-      </c>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="7"/>
+      <c r="M65" s="7"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="4" t="s">
@@ -4022,26 +3056,11 @@
       <c r="H66" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I66" s="7" t="n">
-        <f aca="false">NOT(EXACT(E66,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="J66" s="7" t="n">
-        <f aca="false">NOT(EXACT(F66,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="K66" s="7" t="n">
-        <f aca="false">NOT(EXACT(G66,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="L66" s="7" t="n">
-        <f aca="false">NOT(EXACT(H66,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="M66" s="7" t="n">
-        <f aca="false">AND(I66,J66,K66,L66)</f>
-        <v>0</v>
-      </c>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="7"/>
+      <c r="L66" s="7"/>
+      <c r="M66" s="7"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="4" t="s">
@@ -4068,26 +3087,11 @@
       <c r="H67" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="I67" s="7" t="n">
-        <f aca="false">NOT(EXACT(E67,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="J67" s="7" t="n">
-        <f aca="false">NOT(EXACT(F67,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="K67" s="7" t="n">
-        <f aca="false">NOT(EXACT(G67,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="L67" s="7" t="n">
-        <f aca="false">NOT(EXACT(H67,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="M67" s="7" t="n">
-        <f aca="false">AND(I67,J67,K67,L67)</f>
-        <v>1</v>
-      </c>
+      <c r="I67" s="7"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="7"/>
+      <c r="L67" s="7"/>
+      <c r="M67" s="7"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="4" t="s">
@@ -4114,26 +3118,11 @@
       <c r="H68" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="I68" s="7" t="n">
-        <f aca="false">NOT(EXACT(E68,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="J68" s="7" t="n">
-        <f aca="false">NOT(EXACT(F68,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="K68" s="7" t="n">
-        <f aca="false">NOT(EXACT(G68,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="L68" s="7" t="n">
-        <f aca="false">NOT(EXACT(H68,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="M68" s="7" t="n">
-        <f aca="false">AND(I68,J68,K68,L68)</f>
-        <v>0</v>
-      </c>
+      <c r="I68" s="7"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="7"/>
+      <c r="L68" s="7"/>
+      <c r="M68" s="7"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="4" t="s">
@@ -4160,26 +3149,11 @@
       <c r="H69" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="I69" s="7" t="n">
-        <f aca="false">NOT(EXACT(E69,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="J69" s="7" t="n">
-        <f aca="false">NOT(EXACT(F69,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="K69" s="7" t="n">
-        <f aca="false">NOT(EXACT(G69,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="L69" s="7" t="n">
-        <f aca="false">NOT(EXACT(H69,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="M69" s="7" t="n">
-        <f aca="false">AND(I69,J69,K69,L69)</f>
-        <v>0</v>
-      </c>
+      <c r="I69" s="7"/>
+      <c r="J69" s="7"/>
+      <c r="K69" s="7"/>
+      <c r="L69" s="7"/>
+      <c r="M69" s="7"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="4" t="s">
@@ -4206,26 +3180,11 @@
       <c r="H70" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I70" s="7" t="n">
-        <f aca="false">NOT(EXACT(E70,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="J70" s="7" t="n">
-        <f aca="false">NOT(EXACT(F70,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="K70" s="7" t="n">
-        <f aca="false">NOT(EXACT(G70,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="L70" s="7" t="n">
-        <f aca="false">NOT(EXACT(H70,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="M70" s="7" t="n">
-        <f aca="false">AND(I70,J70,K70,L70)</f>
-        <v>0</v>
-      </c>
+      <c r="I70" s="7"/>
+      <c r="J70" s="7"/>
+      <c r="K70" s="7"/>
+      <c r="L70" s="7"/>
+      <c r="M70" s="7"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="4" t="s">
@@ -4252,26 +3211,11 @@
       <c r="H71" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I71" s="7" t="n">
-        <f aca="false">NOT(EXACT(E71,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="J71" s="7" t="n">
-        <f aca="false">NOT(EXACT(F71,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="K71" s="7" t="n">
-        <f aca="false">NOT(EXACT(G71,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="L71" s="7" t="n">
-        <f aca="false">NOT(EXACT(H71,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="M71" s="7" t="n">
-        <f aca="false">AND(I71,J71,K71,L71)</f>
-        <v>0</v>
-      </c>
+      <c r="I71" s="7"/>
+      <c r="J71" s="7"/>
+      <c r="K71" s="7"/>
+      <c r="L71" s="7"/>
+      <c r="M71" s="7"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="4" t="s">
@@ -4298,26 +3242,11 @@
       <c r="H72" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I72" s="7" t="n">
-        <f aca="false">NOT(EXACT(E72,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="J72" s="7" t="n">
-        <f aca="false">NOT(EXACT(F72,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="K72" s="7" t="n">
-        <f aca="false">NOT(EXACT(G72,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="L72" s="7" t="n">
-        <f aca="false">NOT(EXACT(H72,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="M72" s="7" t="n">
-        <f aca="false">AND(I72,J72,K72,L72)</f>
-        <v>0</v>
-      </c>
+      <c r="I72" s="7"/>
+      <c r="J72" s="7"/>
+      <c r="K72" s="7"/>
+      <c r="L72" s="7"/>
+      <c r="M72" s="7"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="4" t="s">
@@ -4344,26 +3273,11 @@
       <c r="H73" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I73" s="7" t="n">
-        <f aca="false">NOT(EXACT(E73,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="J73" s="7" t="n">
-        <f aca="false">NOT(EXACT(F73,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="K73" s="7" t="n">
-        <f aca="false">NOT(EXACT(G73,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="L73" s="7" t="n">
-        <f aca="false">NOT(EXACT(H73,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="M73" s="7" t="n">
-        <f aca="false">AND(I73,J73,K73,L73)</f>
-        <v>0</v>
-      </c>
+      <c r="I73" s="7"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="7"/>
+      <c r="L73" s="7"/>
+      <c r="M73" s="7"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="4" t="s">
@@ -4390,26 +3304,11 @@
       <c r="H74" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I74" s="7" t="n">
-        <f aca="false">NOT(EXACT(E74,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="J74" s="7" t="n">
-        <f aca="false">NOT(EXACT(F74,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="K74" s="7" t="n">
-        <f aca="false">NOT(EXACT(G74,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="L74" s="7" t="n">
-        <f aca="false">NOT(EXACT(H74,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="M74" s="7" t="n">
-        <f aca="false">AND(I74,J74,K74,L74)</f>
-        <v>0</v>
-      </c>
+      <c r="I74" s="7"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="7"/>
+      <c r="L74" s="7"/>
+      <c r="M74" s="7"/>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="4" t="s">
@@ -4436,26 +3335,11 @@
       <c r="H75" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I75" s="7" t="n">
-        <f aca="false">NOT(EXACT(E75,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="J75" s="7" t="n">
-        <f aca="false">NOT(EXACT(F75,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="K75" s="7" t="n">
-        <f aca="false">NOT(EXACT(G75,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="L75" s="7" t="n">
-        <f aca="false">NOT(EXACT(H75,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="M75" s="7" t="n">
-        <f aca="false">AND(I75,J75,K75,L75)</f>
-        <v>0</v>
-      </c>
+      <c r="I75" s="7"/>
+      <c r="J75" s="7"/>
+      <c r="K75" s="7"/>
+      <c r="L75" s="7"/>
+      <c r="M75" s="7"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="4" t="s">
@@ -4482,26 +3366,11 @@
       <c r="H76" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I76" s="7" t="n">
-        <f aca="false">NOT(EXACT(E76,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="J76" s="7" t="n">
-        <f aca="false">NOT(EXACT(F76,"None"))</f>
-        <v>1</v>
-      </c>
-      <c r="K76" s="7" t="n">
-        <f aca="false">NOT(EXACT(G76,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="L76" s="7" t="n">
-        <f aca="false">NOT(EXACT(H76,"None"))</f>
-        <v>0</v>
-      </c>
-      <c r="M76" s="7" t="n">
-        <f aca="false">AND(I76,J76,K76,L76)</f>
-        <v>0</v>
-      </c>
+      <c r="I76" s="7"/>
+      <c r="J76" s="7"/>
+      <c r="K76" s="7"/>
+      <c r="L76" s="7"/>
+      <c r="M76" s="7"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="10"/>
